--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200211.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\yiqing\pkuvis.github.io\NCP\data\unchecked\manual_collect\china\henan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\yiqing\COVID-19\data\unchecked\manual_collect\china\henan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17EAEE2-3B1B-4E7C-96A3-68360CDC26A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8A41E-4411-4A27-A7E7-3EC51F1BDD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3288" yWindow="360" windowWidth="17280" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1151,10 +1151,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
       <selection activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:40" hidden="1">
+    <row r="4" spans="1:40">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:40" hidden="1">
+    <row r="5" spans="1:40">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:40" hidden="1">
+    <row r="6" spans="1:40">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:40" hidden="1">
+    <row r="7" spans="1:40">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:40" hidden="1">
+    <row r="8" spans="1:40">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:40" hidden="1">
+    <row r="9" spans="1:40">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:40" hidden="1">
+    <row r="10" spans="1:40">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:40" hidden="1">
+    <row r="11" spans="1:40">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:40" hidden="1">
+    <row r="12" spans="1:40">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:40" hidden="1">
+    <row r="13" spans="1:40">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:40" hidden="1">
+    <row r="14" spans="1:40">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:40" hidden="1">
+    <row r="15" spans="1:40">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1">
+    <row r="17" spans="1:32">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1">
+    <row r="18" spans="1:32">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1">
+    <row r="19" spans="1:32">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1">
+    <row r="20" spans="1:32">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1">
+    <row r="21" spans="1:32">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:32" hidden="1">
+    <row r="22" spans="1:32">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:32" hidden="1">
+    <row r="23" spans="1:32">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:32" hidden="1">
+    <row r="24" spans="1:32">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1">
+    <row r="25" spans="1:32">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3083,9 +3082,7 @@
         <v>79</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3134,7 +3131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:32" hidden="1">
+    <row r="27" spans="1:32">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:32" hidden="1">
+    <row r="28" spans="1:32">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:32" hidden="1">
+    <row r="29" spans="1:32">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:32" hidden="1">
+    <row r="30" spans="1:32">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:32" hidden="1">
+    <row r="31" spans="1:32">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3494,7 +3491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:32" hidden="1">
+    <row r="32" spans="1:32">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3566,7 +3563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:32" hidden="1">
+    <row r="33" spans="1:32">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:32" hidden="1">
+    <row r="34" spans="1:32">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1">
+    <row r="35" spans="1:32">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1">
+    <row r="36" spans="1:32">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1">
+    <row r="37" spans="1:32">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1">
+    <row r="38" spans="1:32">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1">
+    <row r="39" spans="1:32">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:32" hidden="1">
+    <row r="40" spans="1:32">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:32" hidden="1">
+    <row r="41" spans="1:32">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4288,7 +4285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:32" hidden="1">
+    <row r="43" spans="1:32">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:32" hidden="1">
+    <row r="44" spans="1:32">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:32" hidden="1">
+    <row r="45" spans="1:32">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:32" hidden="1">
+    <row r="46" spans="1:32">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -4576,7 +4573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:32" hidden="1">
+    <row r="47" spans="1:32">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -4648,7 +4645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:32" hidden="1">
+    <row r="48" spans="1:32">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:32" hidden="1">
+    <row r="49" spans="1:32">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -4792,7 +4789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:32" hidden="1">
+    <row r="50" spans="1:32">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -4864,7 +4861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:32" hidden="1">
+    <row r="51" spans="1:32">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -4936,7 +4933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:32" hidden="1">
+    <row r="52" spans="1:32">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:32" hidden="1">
+    <row r="54" spans="1:32">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -5154,7 +5151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:32" hidden="1">
+    <row r="55" spans="1:32">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:32" hidden="1">
+    <row r="56" spans="1:32">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:32" hidden="1">
+    <row r="57" spans="1:32">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -5370,7 +5367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:32" hidden="1">
+    <row r="58" spans="1:32">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5442,7 +5439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:32" hidden="1">
+    <row r="59" spans="1:32">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -5514,7 +5511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:32" hidden="1">
+    <row r="60" spans="1:32">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:32" hidden="1">
+    <row r="61" spans="1:32">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5658,7 +5655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:32" hidden="1">
+    <row r="62" spans="1:32">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:32" hidden="1">
+    <row r="64" spans="1:32">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:32" hidden="1">
+    <row r="65" spans="1:32">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:32" hidden="1">
+    <row r="66" spans="1:32">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -6020,7 +6017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:32" hidden="1">
+    <row r="67" spans="1:32">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -6092,7 +6089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:32" hidden="1">
+    <row r="68" spans="1:32">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -6238,7 +6235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:32" hidden="1">
+    <row r="70" spans="1:32">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:32" hidden="1">
+    <row r="71" spans="1:32">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:32" hidden="1">
+    <row r="72" spans="1:32">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -6454,7 +6451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:32" hidden="1">
+    <row r="73" spans="1:32">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:32" hidden="1">
+    <row r="74" spans="1:32">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -6598,7 +6595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:32" hidden="1">
+    <row r="75" spans="1:32">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -6670,7 +6667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:32" hidden="1">
+    <row r="76" spans="1:32">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -6742,7 +6739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:32" hidden="1">
+    <row r="77" spans="1:32">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -6814,7 +6811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:32" hidden="1">
+    <row r="78" spans="1:32">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:32" hidden="1">
+    <row r="79" spans="1:32">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -6958,7 +6955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:32" hidden="1">
+    <row r="80" spans="1:32">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -7030,7 +7027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:32" hidden="1">
+    <row r="81" spans="1:32">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -7176,7 +7173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:32" hidden="1">
+    <row r="83" spans="1:32">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:32" hidden="1">
+    <row r="84" spans="1:32">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -7320,7 +7317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:32" hidden="1">
+    <row r="85" spans="1:32">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:32" hidden="1">
+    <row r="86" spans="1:32">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -7464,7 +7461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:32" hidden="1">
+    <row r="87" spans="1:32">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:32" hidden="1">
+    <row r="88" spans="1:32">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -7608,7 +7605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:32" hidden="1">
+    <row r="89" spans="1:32">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:32" hidden="1">
+    <row r="90" spans="1:32">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:32" hidden="1">
+    <row r="91" spans="1:32">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -7824,7 +7821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:32" hidden="1">
+    <row r="92" spans="1:32">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -7919,9 +7916,7 @@
         <v>145</v>
       </c>
       <c r="H93" s="2"/>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
+      <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -7970,7 +7965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:32" hidden="1">
+    <row r="94" spans="1:32">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -8042,7 +8037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:32" hidden="1">
+    <row r="95" spans="1:32">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -8114,7 +8109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:32" hidden="1">
+    <row r="96" spans="1:32">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -8186,7 +8181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:32" hidden="1">
+    <row r="97" spans="1:32">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:32" hidden="1">
+    <row r="98" spans="1:32">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -8330,7 +8325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:32" hidden="1">
+    <row r="99" spans="1:32">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -8476,7 +8471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:32" hidden="1">
+    <row r="101" spans="1:32">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -8548,7 +8543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:32" hidden="1">
+    <row r="102" spans="1:32">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -8620,7 +8615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:32" hidden="1">
+    <row r="103" spans="1:32">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -8692,7 +8687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:32" hidden="1">
+    <row r="104" spans="1:32">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -8764,7 +8759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:32" hidden="1">
+    <row r="105" spans="1:32">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -8836,7 +8831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:32" hidden="1">
+    <row r="106" spans="1:32">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -8982,7 +8977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:32" hidden="1">
+    <row r="108" spans="1:32">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -9054,7 +9049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:32" hidden="1">
+    <row r="109" spans="1:32">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -9126,7 +9121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:32" hidden="1">
+    <row r="110" spans="1:32">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -9198,7 +9193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:32" hidden="1">
+    <row r="111" spans="1:32">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -9270,7 +9265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:32" hidden="1">
+    <row r="112" spans="1:32">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -9416,7 +9411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:32" hidden="1">
+    <row r="114" spans="1:32">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -9488,7 +9483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:32" hidden="1">
+    <row r="115" spans="1:32">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -9560,7 +9555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:32" hidden="1">
+    <row r="116" spans="1:32">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -9632,7 +9627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:32" hidden="1">
+    <row r="117" spans="1:32">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -9704,7 +9699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:32" hidden="1">
+    <row r="118" spans="1:32">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -9776,7 +9771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:32" hidden="1">
+    <row r="119" spans="1:32">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -9920,7 +9915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:32" hidden="1">
+    <row r="121" spans="1:32">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -9992,7 +9987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:32" hidden="1">
+    <row r="122" spans="1:32">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -10064,7 +10059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:32" hidden="1">
+    <row r="123" spans="1:32">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -10136,7 +10131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:32" hidden="1">
+    <row r="124" spans="1:32">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -10208,7 +10203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:32" hidden="1">
+    <row r="125" spans="1:32">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -10280,7 +10275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:32" hidden="1">
+    <row r="126" spans="1:32">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -10352,7 +10347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:32" hidden="1">
+    <row r="127" spans="1:32">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -10424,7 +10419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:32" hidden="1">
+    <row r="128" spans="1:32">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -10496,7 +10491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:32" hidden="1">
+    <row r="129" spans="1:32">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -10568,7 +10563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:32" hidden="1">
+    <row r="130" spans="1:32">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -10640,7 +10635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:32" hidden="1">
+    <row r="131" spans="1:32">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -10712,7 +10707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:32" hidden="1">
+    <row r="132" spans="1:32">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -10784,7 +10779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:32" hidden="1">
+    <row r="133" spans="1:32">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -10930,7 +10925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:32" hidden="1">
+    <row r="135" spans="1:32">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -11002,7 +10997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:32" hidden="1">
+    <row r="136" spans="1:32">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -11074,7 +11069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:32" hidden="1">
+    <row r="137" spans="1:32">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -11146,7 +11141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:32" hidden="1">
+    <row r="138" spans="1:32">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -11218,7 +11213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:32" hidden="1">
+    <row r="139" spans="1:32">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -11290,7 +11285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:32" hidden="1">
+    <row r="140" spans="1:32">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -11362,7 +11357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:32" hidden="1">
+    <row r="141" spans="1:32">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -11434,7 +11429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:32" hidden="1">
+    <row r="142" spans="1:32">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -11506,7 +11501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:32" hidden="1">
+    <row r="143" spans="1:32">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -11601,9 +11596,7 @@
         <v>197</v>
       </c>
       <c r="H144" s="2"/>
-      <c r="I144" s="2">
-        <v>0</v>
-      </c>
+      <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -11652,7 +11645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:32" hidden="1">
+    <row r="145" spans="1:32">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -11724,7 +11717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:32" hidden="1">
+    <row r="146" spans="1:32">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -11796,7 +11789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:32" hidden="1">
+    <row r="147" spans="1:32">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -11868,7 +11861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:32" hidden="1">
+    <row r="148" spans="1:32">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -11940,7 +11933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:32" hidden="1">
+    <row r="149" spans="1:32">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -12012,7 +12005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:32" hidden="1">
+    <row r="150" spans="1:32">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -12084,7 +12077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:32" hidden="1">
+    <row r="151" spans="1:32">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -12156,7 +12149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:32" hidden="1">
+    <row r="152" spans="1:32">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -12228,7 +12221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:32" hidden="1">
+    <row r="153" spans="1:32">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -12300,7 +12293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:32" hidden="1">
+    <row r="154" spans="1:32">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -12446,7 +12439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:32" hidden="1">
+    <row r="156" spans="1:32">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -12518,7 +12511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:32" hidden="1">
+    <row r="157" spans="1:32">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -12590,7 +12583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:32" hidden="1">
+    <row r="158" spans="1:32">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -12662,7 +12655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:32" hidden="1">
+    <row r="159" spans="1:32">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -12734,7 +12727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:32" hidden="1">
+    <row r="160" spans="1:32">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -12806,7 +12799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:32" hidden="1">
+    <row r="161" spans="1:32">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -12878,7 +12871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" spans="1:32" hidden="1">
+    <row r="162" spans="1:32">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -12950,7 +12943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:32" hidden="1">
+    <row r="163" spans="1:32">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -13022,7 +13015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:32" hidden="1">
+    <row r="164" spans="1:32">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -13094,7 +13087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:32" hidden="1">
+    <row r="165" spans="1:32">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -13240,7 +13233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:32" hidden="1">
+    <row r="167" spans="1:32">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -13312,7 +13305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:32" hidden="1">
+    <row r="168" spans="1:32">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -13384,7 +13377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="1:32" hidden="1">
+    <row r="169" spans="1:32">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -13456,7 +13449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:32" hidden="1">
+    <row r="170" spans="1:32">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -13528,7 +13521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:32" hidden="1">
+    <row r="171" spans="1:32">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -13600,7 +13593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:32" hidden="1">
+    <row r="172" spans="1:32">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -13672,7 +13665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:32" hidden="1">
+    <row r="173" spans="1:32">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -13744,7 +13737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:32" hidden="1">
+    <row r="174" spans="1:32">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -13816,7 +13809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:32" hidden="1">
+    <row r="175" spans="1:32">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -13888,7 +13881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:32" hidden="1">
+    <row r="176" spans="1:32">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -14057,9 +14050,7 @@
         <v>240</v>
       </c>
       <c r="H178" s="2"/>
-      <c r="I178" s="2">
-        <v>0</v>
-      </c>
+      <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -14191,14 +14182,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN179" xr:uid="{DC60BAC1-A73D-462F-A26A-6A95BD5A28B4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="城市级"/>
-        <filter val="省级"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AN179" xr:uid="{DC60BAC1-A73D-462F-A26A-6A95BD5A28B4}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="V3" r:id="rId1" xr:uid="{140787E4-ED5F-423B-88A0-97D2AA8978CB}"/>
